--- a/spliced/struggle/2023-04-06_18-11-11/gyroscope_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-11-11/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.5183191895484924</v>
+        <v>0.0167987942695617</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.74109148979187</v>
+        <v>0.1464549452066421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1130100712180137</v>
+        <v>0.5288565754890442</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.485485166311264</v>
+        <v>-0.2842050492763519</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.733940958976746</v>
+        <v>-2.60824179649353</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1319468915462494</v>
+        <v>-0.3984368443489074</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.8013024926185608</v>
+        <v>-0.5183191895484924</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9908234477043152</v>
+        <v>-3.74109148979187</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1090394482016563</v>
+        <v>0.1130100712180137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1398881375789642</v>
+        <v>-0.485485166311264</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2066251635551452</v>
+        <v>-1.733940958976746</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2506074607372284</v>
+        <v>0.1319468915462494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.494939923286438</v>
+        <v>-0.8013024926185608</v>
       </c>
       <c r="B6" t="n">
-        <v>3.902817964553833</v>
+        <v>-0.9908234477043152</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2788599729537964</v>
+        <v>-0.1090394482016563</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.451415777206421</v>
+        <v>-0.1398881375789642</v>
       </c>
       <c r="B7" t="n">
-        <v>5.435784339904785</v>
+        <v>0.2066251635551452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09239336848258969</v>
+        <v>-0.2506074607372284</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4634940028190613</v>
+        <v>1.494939923286438</v>
       </c>
       <c r="B8" t="n">
-        <v>1.852907061576844</v>
+        <v>3.902817964553833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.299934834241867</v>
+        <v>-0.2788599729537964</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1380555480718612</v>
+        <v>1.451415777206421</v>
       </c>
       <c r="B9" t="n">
-        <v>0.99876469373703</v>
+        <v>5.435784339904785</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2206750661134719</v>
+        <v>0.09239336848258969</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1919644027948379</v>
+        <v>0.4634940028190613</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2603813111782074</v>
+        <v>1.852907061576844</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5108360648155212</v>
+        <v>0.299934834241867</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.1438587605953216</v>
+        <v>0.1380555480718612</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.665524125099182</v>
+        <v>0.99876469373703</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2296853363513946</v>
+        <v>-0.2206750661134719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.088409185409546</v>
+        <v>-0.1919644027948379</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.648226261138916</v>
+        <v>0.2603813111782074</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.946077525615692</v>
+        <v>-0.5108360648155212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.942259669303894</v>
+        <v>-0.1438587605953216</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.754544019699097</v>
+        <v>-1.665524125099182</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0618501044809818</v>
+        <v>0.2296853363513946</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.7225008606910706</v>
+        <v>-1.088409185409546</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.54196310043335</v>
+        <v>-4.648226261138916</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5018258094787598</v>
+        <v>-0.946077525615692</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.4671591818332672</v>
+        <v>-0.942259669303894</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.45172131061554</v>
+        <v>-2.754544019699097</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.3419318199157715</v>
+        <v>0.0618501044809818</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.116827979683876</v>
+        <v>-0.7225008606910706</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5007568001747131</v>
+        <v>-2.54196310043335</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3149010241031647</v>
+        <v>-0.5018258094787598</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.036791086196899</v>
+        <v>-0.4671591818332672</v>
       </c>
       <c r="B17" t="n">
-        <v>4.31255578994751</v>
+        <v>-1.45172131061554</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2199114859104156</v>
+        <v>-0.3419318199157715</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.680184841156006</v>
+        <v>0.116827979683876</v>
       </c>
       <c r="B18" t="n">
-        <v>4.684267520904541</v>
+        <v>0.5007568001747131</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0536034256219863</v>
+        <v>0.3149010241031647</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2167044430971145</v>
+        <v>1.036791086196899</v>
       </c>
       <c r="B19" t="n">
-        <v>1.493718266487122</v>
+        <v>4.31255578994751</v>
       </c>
       <c r="C19" t="n">
-        <v>0.555429220199585</v>
+        <v>-0.2199114859104156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.7371616363525391</v>
+        <v>1.680184841156006</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4766276180744171</v>
+        <v>4.684267520904541</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2034181207418441</v>
+        <v>-0.0536034256219863</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.2167044430971145</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.493718266487122</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.555429220199585</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.7371616363525391</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4766276180744171</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.2034181207418441</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>-0.1747074574232101</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>-0.5407684445381165</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>-0.012980886735022</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.2935207486152649</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.132696866989136</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0025961773935705</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.1869247704744339</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.6145304441452026</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.2397646158933639</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.1950187236070633</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0448985956609249</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.3084869384765625</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.0444404482841491</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1437060534954071</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.3220787048339844</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.2638937830924988</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3306308090686798</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.3280346393585205</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.0166460778564214</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1469130963087082</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2872593700885772</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.1206458881497383</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0920879393815994</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0424551330506801</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0326812900602817</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0403171069920063</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0131336031481623</v>
       </c>
     </row>
   </sheetData>
